--- a/Excel/coalman_inverter_status.xlsx
+++ b/Excel/coalman_inverter_status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Excel-Files\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D93D95-BAD4-4FD7-A5E3-F8AEF5DF4A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645BBEF8-61F2-4E40-B3EB-55949624B993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{BEDC0F1F-4D2B-479D-B17B-3F83C9070769}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BEDC0F1F-4D2B-479D-B17B-3F83C9070769}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,9 +30,6 @@
     <t>INVERTER  STATUS</t>
   </si>
   <si>
-    <t>ADDRESS  - BHARARI DARRI ROAD, BLOK KOTA , DIST. BILASPUR , Chhattisgarh ,PIN. 495112</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">COALMAN SOLAR POWER PVT. LTD </t>
     </r>
@@ -46,6 +43,9 @@
       </rPr>
       <t>(Capacity= 3.5 MW)</t>
     </r>
+  </si>
+  <si>
+    <t>ADDRESS  -  BHARARI DARRI ROAD, BLOK KOTA , DIST. BILASPUR , Chhattisgarh ,PIN. 495112</t>
   </si>
 </sst>
 </file>
@@ -446,43 +446,43 @@
       <selection sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>0</v>
       </c>
